--- a/fichier_config_PAF.xlsx
+++ b/fichier_config_PAF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zouitene\OneDrive - Aéroports de Paris\Documents\GitHub\pafprevi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aeroportsdeparis-my.sharepoint.com/personal/wassim_zouitene_adp_fr/Documents/Documents/GitHub/pafprevi_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3D1B59-680D-4A5F-B60A-F3E65B482594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{EA3D1B59-680D-4A5F-B60A-F3E65B482594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FF3B8A2-92E4-4E2C-B40C-B03A6E9BBD7B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="4" activeTab="6" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
+    <workbookView xWindow="59685" yWindow="3465" windowWidth="15660" windowHeight="9165" firstSheet="6" activeTab="11" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -23,10 +23,8 @@
     <sheet name="Liaison AC" sheetId="10" r:id="rId8"/>
     <sheet name="Liaison BD" sheetId="11" r:id="rId9"/>
     <sheet name="T3" sheetId="12" r:id="rId10"/>
-    <sheet name="Terminal 1" sheetId="13" r:id="rId11"/>
-    <sheet name="Terminal 1_5" sheetId="14" r:id="rId12"/>
-    <sheet name="Terminal 1_6" sheetId="15" r:id="rId13"/>
-    <sheet name="Feuil1" sheetId="16" r:id="rId14"/>
+    <sheet name="T1_Dep" sheetId="13" r:id="rId11"/>
+    <sheet name="T1_Arr" sheetId="21" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
   <si>
     <t>terminal</t>
   </si>
@@ -539,7 +537,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,7 +821,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,12 +896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B534B55-2CC7-479A-8B14-4AD5483615B6}">
-  <sheetPr codeName="Feuil9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896C4C4E-E121-408D-8CA6-ED5A14392332}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,13 +924,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -941,132 +938,39 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{80CCE114-B632-49A4-B93F-CA23AADB21BE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{57FCC1F7-88A3-4823-9EA4-F2C1808FEB68}">
+          <x14:formula1>
+            <xm:f>Config!$F$2:$F$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{67D7B627-B05F-4326-92CC-05C6BA18CB29}">
+          <x14:formula1>
+            <xm:f>Config!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{D379F77D-BEC7-42E6-8C78-EBEB6CD730D4}">
+          <x14:formula1>
+            <xm:f>Config!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{87B5DD6A-849B-47CD-AACE-F0F69FEE492E}">
+          <x14:formula1>
+            <xm:f>Config!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{26B0E7A9-F9E7-4598-908D-41207657D7A3}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23B7D1A8-8C80-4398-BFAF-12855C71A27B}">
-          <x14:formula1>
-            <xm:f>Config!$D$2:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{C1175931-01A9-4055-8391-F6F3AAE3EA32}">
-          <x14:formula1>
-            <xm:f>Config!$E$2:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{704B6D3F-8F08-449B-9169-7527DC0A25D8}">
-          <x14:formula1>
-            <xm:f>Config!$C$2:$C$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{658DF450-386A-4128-BB8E-5E4E02B3FE10}">
-          <x14:formula1>
-            <xm:f>Config!$F$2:$F$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C232DF81-A87C-4B54-B9A4-57A1BF8D7E0A}">
-  <sheetPr codeName="Feuil10"/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCC088D9-EDE3-40A0-9FFC-80DC473DAD13}">
-          <x14:formula1>
-            <xm:f>Config!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4538E606-3815-44D0-A5F5-C9291BF5A7FA}">
-          <x14:formula1>
-            <xm:f>Config!$D$2:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{6302EEFD-1A04-4B1E-83B5-09F98D2383A1}">
-          <x14:formula1>
-            <xm:f>Config!$E$2:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{F4744A19-7D22-4DEC-BD0A-DC8DF7724800}">
-          <x14:formula1>
-            <xm:f>Config!$C$2:$C$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{98D69136-CE31-4DA6-AB12-D417E0B4BAA9}">
-          <x14:formula1>
-            <xm:f>Config!$F$2:$F$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C34</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB05903-7F32-4E70-962A-7BC91558118B}">
-  <sheetPr codeName="Feuil11"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1177,7 +1081,7 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -1598,7 +1502,7 @@
   <sheetPr codeName="Feuil14"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/fichier_config_PAF.xlsx
+++ b/fichier_config_PAF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aeroportsdeparis-my.sharepoint.com/personal/wassim_zouitene_adp_fr/Documents/Documents/GitHub/pafprevi_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{EA3D1B59-680D-4A5F-B60A-F3E65B482594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FF3B8A2-92E4-4E2C-B40C-B03A6E9BBD7B}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{EA3D1B59-680D-4A5F-B60A-F3E65B482594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B1A142-E193-4958-BB15-473B460A2EBC}"/>
   <bookViews>
-    <workbookView xWindow="59685" yWindow="3465" windowWidth="15660" windowHeight="9165" firstSheet="6" activeTab="11" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="8" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Galerie E &gt; F" sheetId="19" r:id="rId6"/>
     <sheet name="Galerie F &gt; E" sheetId="20" r:id="rId7"/>
     <sheet name="Liaison AC" sheetId="10" r:id="rId8"/>
-    <sheet name="Liaison BD" sheetId="11" r:id="rId9"/>
-    <sheet name="T3" sheetId="12" r:id="rId10"/>
+    <sheet name="BD_Dep" sheetId="11" r:id="rId9"/>
+    <sheet name="T3_Dep" sheetId="12" r:id="rId10"/>
     <sheet name="T1_Dep" sheetId="13" r:id="rId11"/>
     <sheet name="T1_Arr" sheetId="21" r:id="rId12"/>
   </sheets>
@@ -219,6 +219,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896C4C4E-E121-408D-8CA6-ED5A14392332}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1715,8 +1719,8 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/fichier_config_PAF.xlsx
+++ b/fichier_config_PAF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aeroportsdeparis-my.sharepoint.com/personal/wassim_zouitene_adp_fr/Documents/Documents/GitHub/pafprevi_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{EA3D1B59-680D-4A5F-B60A-F3E65B482594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07B1A142-E193-4958-BB15-473B460A2EBC}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{EA3D1B59-680D-4A5F-B60A-F3E65B482594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D220328A-4107-4408-87F5-40CE38813CFB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="8" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="10" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -21,10 +21,12 @@
     <sheet name="Galerie E &gt; F" sheetId="19" r:id="rId6"/>
     <sheet name="Galerie F &gt; E" sheetId="20" r:id="rId7"/>
     <sheet name="Liaison AC" sheetId="10" r:id="rId8"/>
-    <sheet name="BD_Dep" sheetId="11" r:id="rId9"/>
-    <sheet name="T3_Dep" sheetId="12" r:id="rId10"/>
+    <sheet name="BD_Arr" sheetId="22" r:id="rId9"/>
+    <sheet name="BD_Dep" sheetId="11" r:id="rId10"/>
     <sheet name="T1_Dep" sheetId="13" r:id="rId11"/>
-    <sheet name="T1_Arr" sheetId="21" r:id="rId12"/>
+    <sheet name="T3_Arr" sheetId="23" r:id="rId12"/>
+    <sheet name="T3_Dep" sheetId="12" r:id="rId13"/>
+    <sheet name="T1_Arr" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="37">
   <si>
     <t>terminal</t>
   </si>
@@ -740,12 +742,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A25505-A66A-4A9D-95B6-0F5B73E373D0}">
-  <sheetPr codeName="Feuil7"/>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62610BD-9CEF-45D3-9B3E-CF451D0389AD}">
+  <sheetPr codeName="Feuil6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,12 +771,23 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -783,35 +796,35 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C58045C0-FC2C-4E28-8A77-9EF6FA79DAF2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{49762D33-3E65-4E30-8578-BF01C7142455}">
+          <x14:formula1>
+            <xm:f>Config!$F$2:$F$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{18CE5A44-64F1-47F2-94F4-FA7BA8D53AC5}">
+          <x14:formula1>
+            <xm:f>Config!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{F53405CA-CB49-4F6B-9063-0DB6A8BCA4C1}">
+          <x14:formula1>
+            <xm:f>Config!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9543E68-E794-43BD-9E80-85E36EBE495C}">
+          <x14:formula1>
+            <xm:f>Config!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B172AE6-463F-417A-BC58-EE3C30BA9E8D}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{833A39A4-2466-4F57-B802-C59359DABD8A}">
-          <x14:formula1>
-            <xm:f>Config!$D$2:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{6D52D67E-B1A4-4E2D-BA9B-BAA2DAA2DCD0}">
-          <x14:formula1>
-            <xm:f>Config!$E$2:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{2840A7A5-2D77-48B4-A05B-32EFE060BBF1}">
-          <x14:formula1>
-            <xm:f>Config!$C$2:$C$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{1D1DBD2E-95C7-476F-BF89-8D23D0E2AB27}">
-          <x14:formula1>
-            <xm:f>Config!$F$2:$F$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -824,8 +837,8 @@
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,11 +913,170 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AF2078-FF95-402A-ACBF-07372864360E}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{32AD6849-42A5-4EDC-A84D-6B9BF4156EE9}">
+          <x14:formula1>
+            <xm:f>Config!$F$2:$F$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{51E19397-97D2-48E0-8702-54DBB31D492E}">
+          <x14:formula1>
+            <xm:f>Config!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{2304AF24-6F98-41BA-8ADC-9A3E55C53112}">
+          <x14:formula1>
+            <xm:f>Config!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CB5BF69-AECE-4919-B2F7-42EE85E2B913}">
+          <x14:formula1>
+            <xm:f>Config!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD355B48-AEB7-4F2C-85E0-098376F30B77}">
+          <x14:formula1>
+            <xm:f>Config!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A25505-A66A-4A9D-95B6-0F5B73E373D0}">
+  <sheetPr codeName="Feuil7"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C58045C0-FC2C-4E28-8A77-9EF6FA79DAF2}">
+          <x14:formula1>
+            <xm:f>Config!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{833A39A4-2466-4F57-B802-C59359DABD8A}">
+          <x14:formula1>
+            <xm:f>Config!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{6D52D67E-B1A4-4E2D-BA9B-BAA2DAA2DCD0}">
+          <x14:formula1>
+            <xm:f>Config!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{2840A7A5-2D77-48B4-A05B-32EFE060BBF1}">
+          <x14:formula1>
+            <xm:f>Config!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{1D1DBD2E-95C7-476F-BF89-8D23D0E2AB27}">
+          <x14:formula1>
+            <xm:f>Config!$F$2:$F$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C34</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896C4C4E-E121-408D-8CA6-ED5A14392332}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1715,12 +1887,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62610BD-9CEF-45D3-9B3E-CF451D0389AD}">
-  <sheetPr codeName="Feuil6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF36BB8-F6CD-48FA-8400-7C8FB30EB1E4}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1750,7 +1921,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1761,7 +1932,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1769,35 +1940,35 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{49762D33-3E65-4E30-8578-BF01C7142455}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9AB989D1-073A-4F19-9DB2-A452BF97F39F}">
+          <x14:formula1>
+            <xm:f>Config!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB176655-1971-4988-B545-C60B582E0D92}">
+          <x14:formula1>
+            <xm:f>Config!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{62AD52D4-0214-4D85-B6BE-FA8C74A44AFD}">
+          <x14:formula1>
+            <xm:f>Config!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{2147D824-EB7E-469C-86F1-4E2884890290}">
+          <x14:formula1>
+            <xm:f>Config!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{4C2257CC-1533-44E3-8460-258E1B7F1509}">
           <x14:formula1>
             <xm:f>Config!$F$2:$F$10</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{18CE5A44-64F1-47F2-94F4-FA7BA8D53AC5}">
-          <x14:formula1>
-            <xm:f>Config!$C$2:$C$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{F53405CA-CB49-4F6B-9063-0DB6A8BCA4C1}">
-          <x14:formula1>
-            <xm:f>Config!$E$2:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9543E68-E794-43BD-9E80-85E36EBE495C}">
-          <x14:formula1>
-            <xm:f>Config!$D$2:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B172AE6-463F-417A-BC58-EE3C30BA9E8D}">
-          <x14:formula1>
-            <xm:f>Config!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fichier_config_PAF.xlsx
+++ b/fichier_config_PAF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aeroportsdeparis-my.sharepoint.com/personal/wassim_zouitene_adp_fr/Documents/Documents/GitHub/pafprevi_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{EA3D1B59-680D-4A5F-B60A-F3E65B482594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D220328A-4107-4408-87F5-40CE38813CFB}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{EA3D1B59-680D-4A5F-B60A-F3E65B482594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1F29A4C-AEEF-4472-BEDE-1365F666FEF5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="10" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
+    <workbookView xWindow="33150" yWindow="3510" windowWidth="17280" windowHeight="8970" firstSheet="7" activeTab="12" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -20,13 +20,12 @@
     <sheet name="F &gt; S3" sheetId="18" r:id="rId5"/>
     <sheet name="Galerie E &gt; F" sheetId="19" r:id="rId6"/>
     <sheet name="Galerie F &gt; E" sheetId="20" r:id="rId7"/>
-    <sheet name="Liaison AC" sheetId="10" r:id="rId8"/>
-    <sheet name="BD_Arr" sheetId="22" r:id="rId9"/>
-    <sheet name="BD_Dep" sheetId="11" r:id="rId10"/>
-    <sheet name="T1_Dep" sheetId="13" r:id="rId11"/>
-    <sheet name="T3_Arr" sheetId="23" r:id="rId12"/>
-    <sheet name="T3_Dep" sheetId="12" r:id="rId13"/>
-    <sheet name="T1_Arr" sheetId="21" r:id="rId14"/>
+    <sheet name="BD_Arr" sheetId="22" r:id="rId8"/>
+    <sheet name="BD_Dep" sheetId="11" r:id="rId9"/>
+    <sheet name="T1_Dep" sheetId="13" r:id="rId10"/>
+    <sheet name="T3_Arr" sheetId="23" r:id="rId11"/>
+    <sheet name="T3_Dep" sheetId="12" r:id="rId12"/>
+    <sheet name="T1_Arr" sheetId="21" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="43">
   <si>
     <t>terminal</t>
   </si>
@@ -160,6 +159,24 @@
   </si>
   <si>
     <t>Galerie F &gt; E</t>
+  </si>
+  <si>
+    <t>BD_Arr</t>
+  </si>
+  <si>
+    <t>BD_Dep</t>
+  </si>
+  <si>
+    <t>T1_Arr</t>
+  </si>
+  <si>
+    <t>T1_Dep</t>
+  </si>
+  <si>
+    <t>T3_Arr</t>
+  </si>
+  <si>
+    <t>T3_Dep</t>
   </si>
 </sst>
 </file>
@@ -543,7 +560,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,31 +682,49 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -742,102 +777,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62610BD-9CEF-45D3-9B3E-CF451D0389AD}">
-  <sheetPr codeName="Feuil6"/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{49762D33-3E65-4E30-8578-BF01C7142455}">
-          <x14:formula1>
-            <xm:f>Config!$F$2:$F$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{18CE5A44-64F1-47F2-94F4-FA7BA8D53AC5}">
-          <x14:formula1>
-            <xm:f>Config!$C$2:$C$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{F53405CA-CB49-4F6B-9063-0DB6A8BCA4C1}">
-          <x14:formula1>
-            <xm:f>Config!$E$2:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9543E68-E794-43BD-9E80-85E36EBE495C}">
-          <x14:formula1>
-            <xm:f>Config!$D$2:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B172AE6-463F-417A-BC58-EE3C30BA9E8D}">
-          <x14:formula1>
-            <xm:f>Config!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E33</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCE93B8-1891-48C1-845E-915CB04B72BA}">
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -912,7 +856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AF2078-FF95-402A-ACBF-07372864360E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -991,7 +935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A25505-A66A-4A9D-95B6-0F5B73E373D0}">
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:E2"/>
@@ -1071,12 +1015,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896C4C4E-E121-408D-8CA6-ED5A14392332}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,94 +1743,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6994DD87-4FF5-425E-8F3B-A7B04C79CB98}">
-  <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{88564283-06A4-44A4-8CD2-343F5A1E88F7}">
-          <x14:formula1>
-            <xm:f>Config!$F$2:$F$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{B6987200-0F43-4CC3-8088-5A21954CDABA}">
-          <x14:formula1>
-            <xm:f>Config!$C$2:$C$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{4DE0FC8D-EFC3-44F2-8FC7-A134D0B84998}">
-          <x14:formula1>
-            <xm:f>Config!$E$2:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2ECD66C8-89D6-4E81-926D-3B2371C4878A}">
-          <x14:formula1>
-            <xm:f>Config!$D$2:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{581C8804-97A8-4F3D-95A4-43E395F6379E}">
-          <x14:formula1>
-            <xm:f>Config!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E33</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF36BB8-F6CD-48FA-8400-7C8FB30EB1E4}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1974,4 +1830,95 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62610BD-9CEF-45D3-9B3E-CF451D0389AD}">
+  <sheetPr codeName="Feuil6"/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{49762D33-3E65-4E30-8578-BF01C7142455}">
+          <x14:formula1>
+            <xm:f>Config!$F$2:$F$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{18CE5A44-64F1-47F2-94F4-FA7BA8D53AC5}">
+          <x14:formula1>
+            <xm:f>Config!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{F53405CA-CB49-4F6B-9063-0DB6A8BCA4C1}">
+          <x14:formula1>
+            <xm:f>Config!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B9543E68-E794-43BD-9E80-85E36EBE495C}">
+          <x14:formula1>
+            <xm:f>Config!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B172AE6-463F-417A-BC58-EE3C30BA9E8D}">
+          <x14:formula1>
+            <xm:f>Config!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/fichier_config_PAF.xlsx
+++ b/fichier_config_PAF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demanet\Documents\pafprevi-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8568DC3D-83F9-49DE-B75C-B934D2905966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7416C7-5AF2-4AB6-819E-76D20E2E1102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6105" windowWidth="29040" windowHeight="15840" tabRatio="742" firstSheet="1" activeTab="4" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="742" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -20,14 +20,16 @@
     <sheet name="F &gt; S3" sheetId="18" r:id="rId5"/>
     <sheet name="Galerie E &gt; F" sheetId="19" r:id="rId6"/>
     <sheet name="Galerie F &gt; E" sheetId="20" r:id="rId7"/>
-    <sheet name="AC_Arr" sheetId="24" r:id="rId8"/>
-    <sheet name="AC_Dep" sheetId="25" r:id="rId9"/>
-    <sheet name="BD_Arr" sheetId="22" r:id="rId10"/>
-    <sheet name="BD_Dep" sheetId="11" r:id="rId11"/>
-    <sheet name="T3_Arr" sheetId="23" r:id="rId12"/>
-    <sheet name="T3_Dep" sheetId="12" r:id="rId13"/>
-    <sheet name="T1_Arr" sheetId="21" r:id="rId14"/>
-    <sheet name="T1_Dep" sheetId="13" r:id="rId15"/>
+    <sheet name="A_Arr" sheetId="24" r:id="rId8"/>
+    <sheet name="C_Arr" sheetId="27" r:id="rId9"/>
+    <sheet name="AC_Dep" sheetId="25" r:id="rId10"/>
+    <sheet name="BD_Arr" sheetId="22" r:id="rId11"/>
+    <sheet name="BD_Dep" sheetId="11" r:id="rId12"/>
+    <sheet name="T3_Arr" sheetId="23" r:id="rId13"/>
+    <sheet name="T3_Dep" sheetId="12" r:id="rId14"/>
+    <sheet name="T1_Arr" sheetId="21" r:id="rId15"/>
+    <sheet name="T1_Dep" sheetId="13" r:id="rId16"/>
+    <sheet name="2G_Emport" sheetId="26" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="47">
   <si>
     <t>terminal</t>
   </si>
@@ -181,10 +183,16 @@
     <t>T3_Dep</t>
   </si>
   <si>
-    <t>AC_Arr</t>
-  </si>
-  <si>
     <t>AC_Dep</t>
+  </si>
+  <si>
+    <t>A_Arr</t>
+  </si>
+  <si>
+    <t>C_Arr</t>
+  </si>
+  <si>
+    <t>2G_Emport</t>
   </si>
 </sst>
 </file>
@@ -563,8 +571,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +743,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -743,40 +751,50 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I28" s="1"/>
     </row>
   </sheetData>
@@ -789,6 +807,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9CF70-7259-4713-95D7-134861058FB6}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DBFDD4EA-C518-445E-AE60-D139BFB60031}">
+          <x14:formula1>
+            <xm:f>Config!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FCCC620D-7AE1-48A2-894C-F4FD028F5492}">
+          <x14:formula1>
+            <xm:f>Config!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{B6D280CA-43DB-4C74-B481-D5FD4D2AFF18}">
+          <x14:formula1>
+            <xm:f>Config!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{48A91A31-3491-4F6B-B4A6-6AFB25E7F9B2}">
+          <x14:formula1>
+            <xm:f>Config!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{B352778C-10E5-4755-AF7C-166027904921}">
+          <x14:formula1>
+            <xm:f>Config!$F$2:$F$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C34</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF36BB8-F6CD-48FA-8400-7C8FB30EB1E4}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -878,7 +986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62610BD-9CEF-45D3-9B3E-CF451D0389AD}">
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:E3"/>
@@ -969,7 +1077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AF2078-FF95-402A-ACBF-07372864360E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1048,7 +1156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A25505-A66A-4A9D-95B6-0F5B73E373D0}">
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:E2"/>
@@ -1128,7 +1236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896C4C4E-E121-408D-8CA6-ED5A14392332}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1207,13 +1315,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCE93B8-1891-48C1-845E-915CB04B72BA}">
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,6 +1388,116 @@
             <xm:f>Config!$F$2:$F$10</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C34</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27C32B2-6031-4385-9F4C-7E5F16563FA7}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{981A9BE0-1FD3-41A5-BACC-7E88802AC3A4}">
+          <x14:formula1>
+            <xm:f>Config!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4 E2:E3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4CD4097C-A82F-4028-ABE5-0A3EF4A876E7}">
+          <x14:formula1>
+            <xm:f>Config!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4 D2:D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{11407CD9-AAC7-4268-920B-7FD8C6DA2442}">
+          <x14:formula1>
+            <xm:f>Config!$E$2:$E$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 B2:B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{2EA80FD6-20C3-4FB4-BDBF-A4660FA04A80}">
+          <x14:formula1>
+            <xm:f>Config!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4 A2:A3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{C273F9B9-8046-4EF9-90CB-A8956AED60F4}">
+          <x14:formula1>
+            <xm:f>Config!$F$2:$F$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4 C2:C3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1591,10 +1809,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05C0A2C-3990-4316-A871-192D79FFD17A}">
   <sheetPr codeName="Feuil12"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,13 +1850,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1653,20 +1871,6 @@
       </c>
       <c r="E4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1678,31 +1882,31 @@
           <x14:formula1>
             <xm:f>Config!$F$2:$F$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C34</xm:sqref>
+          <xm:sqref>C2:C4 C6:C34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{2EA80FD6-20C3-4FB4-BDBF-A4660FA04A80}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$14</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A32</xm:sqref>
+          <xm:sqref>A2:A4 A6:A32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{11407CD9-AAC7-4268-920B-7FD8C6DA2442}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
+          <xm:sqref>B2:B4 B6:B33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4CD4097C-A82F-4028-ABE5-0A3EF4A876E7}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D33</xm:sqref>
+          <xm:sqref>D2:D4 D6:D33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{981A9BE0-1FD3-41A5-BACC-7E88802AC3A4}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E33</xm:sqref>
+          <xm:sqref>E2:E4 E6:E33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1838,10 +2042,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F29D58D-1BD6-43E7-A0A5-D053FD7583C3}">
   <sheetPr codeName="Feuil14"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,34 +2081,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1914,31 +2090,31 @@
           <x14:formula1>
             <xm:f>Config!$F$2:$F$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C34</xm:sqref>
+          <xm:sqref>C5:C34 C2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{A32A5CF6-0102-408F-96D5-B2D46BC41285}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$14</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A32</xm:sqref>
+          <xm:sqref>A5:A32 A2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{B62CEDED-2E0D-43D7-BB15-CFB8C54EA143}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
+          <xm:sqref>B5:B33 B2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{472E91DC-7035-4B41-8241-84C731F6DA1F}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D33</xm:sqref>
+          <xm:sqref>D5:D33 D2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{137B1A2E-713E-4EB3-82A5-EEA03AE4442F}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E33</xm:sqref>
+          <xm:sqref>E5:E33 E2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1948,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92735D5-F3A2-4790-A827-93BB92FF0E6B}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,17 +2160,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2037,11 +2202,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9CF70-7259-4713-95D7-134861058FB6}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00AA72A-906D-464F-8FD0-96ADD87868D9}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,24 +2230,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2090,35 +2244,35 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DBFDD4EA-C518-445E-AE60-D139BFB60031}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78E41B3D-632C-4A20-BB86-B21276F633B0}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FCCC620D-7AE1-48A2-894C-F4FD028F5492}">
+          <xm:sqref>E2:E32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{09173D90-94D6-409E-9C8B-A7305D4F0F4B}">
           <x14:formula1>
             <xm:f>Config!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{B6D280CA-43DB-4C74-B481-D5FD4D2AFF18}">
+          <xm:sqref>D2:D32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{1FE0DFC3-384D-4274-9C17-544EA6A01B20}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{48A91A31-3491-4F6B-B4A6-6AFB25E7F9B2}">
+          <xm:sqref>B2:B32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" prompt="Choisir terminal" xr:uid="{588A421A-A898-4990-98C4-E315DEAC4832}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$14</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{B352778C-10E5-4755-AF7C-166027904921}">
+          <xm:sqref>A2:A31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Entrée non valide" error="Sélectionnez un PIF dans la liste" prompt="Choisir un PIF" xr:uid="{2DBABCEA-0CBE-43AD-86EE-3D559ACAA563}">
           <x14:formula1>
             <xm:f>Config!$F$2:$F$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C34</xm:sqref>
+          <xm:sqref>C2:C33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fichier_config_PAF.xlsx
+++ b/fichier_config_PAF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demanet\Documents\pafprevi-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demanet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7416C7-5AF2-4AB6-819E-76D20E2E1102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F36E737-866C-4672-B36E-076E1F2EACC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="742" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="15435" tabRatio="742" firstSheet="1" activeTab="17" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="T1_Arr" sheetId="21" r:id="rId15"/>
     <sheet name="T1_Dep" sheetId="13" r:id="rId16"/>
     <sheet name="2G_Emport" sheetId="26" r:id="rId17"/>
+    <sheet name="dispatch_sat" sheetId="28" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="57">
   <si>
     <t>terminal</t>
   </si>
@@ -193,6 +194,36 @@
   </si>
   <si>
     <t>2G_Emport</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>sat6</t>
+  </si>
+  <si>
+    <t>sat5</t>
   </si>
 </sst>
 </file>
@@ -571,7 +602,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1505,6 +1536,63 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3ED1A-853D-49C1-88A1-C650CEB60400}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B3C2BD-92D4-480B-ABD9-703428D57CC7}">
   <sheetPr codeName="Feuil2"/>
